--- a/data/trans_orig/IP22D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10727A94-9E9F-4105-A188-0546CD62B2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0933A32C-F027-4F3C-9F34-47C8A4D108A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51B62B32-6CFC-406E-8F54-9F4E5AA609F2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38F9D446-1C6F-46ED-870A-EBDAB62DC46C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>68,99%</t>
   </si>
   <si>
-    <t>18,42%</t>
+    <t>19,52%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,16 +83,16 @@
     <t>87,47%</t>
   </si>
   <si>
-    <t>29,8%</t>
+    <t>35,5%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>81,58%</t>
+    <t>80,48%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,7 +116,7 @@
     <t>16,12%</t>
   </si>
   <si>
-    <t>52,31%</t>
+    <t>53,89%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -134,13 +134,13 @@
     <t>12,53%</t>
   </si>
   <si>
-    <t>70,2%</t>
+    <t>64,5%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>32,61%</t>
+    <t>39,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,61 +152,61 @@
     <t>36,89%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
   </si>
   <si>
     <t>36,17%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
   <si>
     <t>63,83%</t>
   </si>
   <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>61,32%</t>
   </si>
   <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>13,15%</t>
+    <t>12,89%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -215,19 +215,19 @@
     <t>1,33%</t>
   </si>
   <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>4,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -236,55 +236,55 @@
     <t>44,37%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>17,41%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
   </si>
   <si>
     <t>30,55%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
   </si>
   <si>
     <t>55,63%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>82,59%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>69,45%</t>
   </si>
   <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -299,61 +299,61 @@
     <t>41,7%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
   <si>
     <t>37,46%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
   </si>
   <si>
     <t>39,68%</t>
   </si>
   <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
   </si>
   <si>
     <t>55,51%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>61,2%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>58,22%</t>
   </si>
   <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>8,62%</t>
+    <t>8,85%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -362,25 +362,25 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,83%</t>
+    <t>4,7%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>5,72%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436C11AC-FB29-4145-9CE7-C8B6E60B1CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3CDD6C-16F6-4E02-82F6-8A0E4A2A1DC5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0933A32C-F027-4F3C-9F34-47C8A4D108A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB3E803-16E9-4104-8775-2907E03FD192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38F9D446-1C6F-46ED-870A-EBDAB62DC46C}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{C725A05D-77BE-43E5-AC74-DD9A219FD586}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="115">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 6,56%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,313 +71,310 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
     <t>68,99%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
   </si>
   <si>
     <t>55,63%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -795,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3CDD6C-16F6-4E02-82F6-8A0E4A2A1DC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F3848A-B0B1-4446-B255-B9F5D2BFEB30}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -916,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>3538</v>
+        <v>7537</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -931,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>4145</v>
+        <v>4100</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -946,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>7683</v>
+        <v>11637</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -955,160 +952,160 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <v>1591</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>1558</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1591</v>
+        <v>1558</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>655</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1117,255 +1114,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8192</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="7">
-        <v>5129</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
       <c r="I8" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>11140</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7">
         <v>20</v>
       </c>
-      <c r="D9" s="7">
-        <v>12657</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="I9" s="7">
+        <v>13519</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7">
-        <v>10748</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
       </c>
       <c r="N9" s="7">
-        <v>23405</v>
+        <v>24659</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7">
+        <v>19071</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="7">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
-        <v>20291</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>21337</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18969</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>39260</v>
+        <v>40408</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>854</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>925</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>854</v>
+        <v>925</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>504</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>519</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1374,159 +1371,159 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7">
+        <v>30211</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="7">
         <v>45</v>
       </c>
-      <c r="D13" s="7">
-        <v>34307</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="7">
-        <v>44</v>
-      </c>
       <c r="I13" s="7">
-        <v>29717</v>
+        <v>36300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>64024</v>
+        <v>66511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1655</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="7">
-        <v>4179</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>4708</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1724</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>5903</v>
+        <v>6362</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7">
+        <v>8108</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="7">
-        <v>5239</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="I15" s="7">
+        <v>6046</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="7">
-        <v>11</v>
-      </c>
-      <c r="I15" s="7">
-        <v>8181</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
       </c>
       <c r="N15" s="7">
-        <v>13420</v>
+        <v>14155</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1535,49 +1532,49 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1586,43 +1583,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,49 +1628,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9763</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
-        <v>9418</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
       <c r="I18" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,202 +1681,202 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7">
+        <v>20332</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="7">
         <v>30</v>
       </c>
-      <c r="D19" s="7">
-        <v>20374</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>22327</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7">
-        <v>16616</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
       </c>
       <c r="N19" s="7">
-        <v>36991</v>
+        <v>42659</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7">
+        <v>27179</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="7">
         <v>31</v>
       </c>
-      <c r="D20" s="7">
-        <v>27121</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>28942</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="7">
-        <v>37</v>
-      </c>
-      <c r="I20" s="7">
-        <v>27150</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
       </c>
       <c r="N20" s="7">
-        <v>54271</v>
+        <v>56121</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="7">
         <v>1</v>
       </c>
-      <c r="D21" s="7">
-        <v>854</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="I21" s="7">
+        <v>925</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>854</v>
+        <v>925</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>504</v>
+        <v>655</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1098</v>
+        <v>1174</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,51 +1888,51 @@
         <v>63</v>
       </c>
       <c r="D23" s="7">
-        <v>48854</v>
+        <v>48166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
       </c>
       <c r="I23" s="7">
-        <v>44360</v>
+        <v>52713</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
         <v>126</v>
       </c>
       <c r="N23" s="7">
-        <v>93214</v>
+        <v>100879</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
